--- a/database/industries/bargh/bemoto/product/yearly.xlsx
+++ b/database/industries/bargh/bemoto/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\bargh\bemoto\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\bargh\bemoto\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5973681F-6DDF-4EEF-8160-B6F8C84ECFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -162,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +333,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -344,7 +345,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -391,6 +392,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -426,6 +444,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,17 +612,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -602,7 +637,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +654,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -636,7 +671,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -651,7 +686,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -668,7 +703,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -685,7 +720,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -700,7 +735,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -737,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -752,7 +787,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -791,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -828,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -867,7 +902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -906,7 +941,7 @@
         <v>884815</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -945,7 +980,7 @@
         <v>192523</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -984,7 +1019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1023,7 +1058,7 @@
         <v>1053900</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1062,7 +1097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1101,7 +1136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1140,7 +1175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1179,7 +1214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1218,7 +1253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1257,7 +1292,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1296,7 +1331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>31</v>
       </c>
@@ -1333,7 +1368,7 @@
         <v>2132539</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1348,7 +1383,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1363,7 +1398,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1378,7 +1413,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>32</v>
       </c>
@@ -1415,7 +1450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1430,7 +1465,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>15</v>
       </c>
@@ -1467,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
@@ -1506,7 +1541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>33</v>
       </c>
@@ -1545,7 +1580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>35</v>
       </c>
@@ -1584,7 +1619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>18</v>
       </c>
@@ -1621,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>19</v>
       </c>
@@ -1660,7 +1695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>20</v>
       </c>
@@ -1699,7 +1734,7 @@
         <v>763151</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>21</v>
       </c>
@@ -1738,7 +1773,7 @@
         <v>164701</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>22</v>
       </c>
@@ -1777,7 +1812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>37</v>
       </c>
@@ -1816,7 +1851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>23</v>
       </c>
@@ -1855,7 +1890,7 @@
         <v>808181</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>24</v>
       </c>
@@ -1894,7 +1929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>25</v>
       </c>
@@ -1933,7 +1968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>26</v>
       </c>
@@ -1972,7 +2007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>27</v>
       </c>
@@ -2011,7 +2046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>29</v>
       </c>
@@ -2050,7 +2085,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>30</v>
       </c>
@@ -2089,7 +2124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>31</v>
       </c>
@@ -2126,7 +2161,7 @@
         <v>1736574</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2141,7 +2176,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2156,7 +2191,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2171,7 +2206,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>38</v>
       </c>
@@ -2208,7 +2243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2223,7 +2258,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>15</v>
       </c>
@@ -2262,7 +2297,7 @@
         <v>454294</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>33</v>
       </c>
@@ -2301,7 +2336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>35</v>
       </c>
@@ -2340,7 +2375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>18</v>
       </c>
@@ -2379,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>19</v>
       </c>
@@ -2418,7 +2453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>20</v>
       </c>
@@ -2457,7 +2492,7 @@
         <v>7231855</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>21</v>
       </c>
@@ -2496,7 +2531,7 @@
         <v>6463173</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>22</v>
       </c>
@@ -2535,7 +2570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>37</v>
       </c>
@@ -2574,7 +2609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>23</v>
       </c>
@@ -2613,7 +2648,7 @@
         <v>764517</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>24</v>
       </c>
@@ -2652,7 +2687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>25</v>
       </c>
@@ -2691,7 +2726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>26</v>
       </c>
@@ -2730,7 +2765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>27</v>
       </c>
@@ -2769,7 +2804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>29</v>
       </c>
@@ -2808,7 +2843,7 @@
         <v>55058</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>30</v>
       </c>
@@ -2847,7 +2882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>31</v>
       </c>
@@ -2884,7 +2919,7 @@
         <v>14968897</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2899,7 +2934,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2914,7 +2949,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2929,7 +2964,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>40</v>
       </c>
@@ -2966,7 +3001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2981,7 +3016,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>15</v>
       </c>
@@ -3020,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>33</v>
       </c>
@@ -3059,7 +3094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>35</v>
       </c>
@@ -3098,7 +3133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>18</v>
       </c>
@@ -3137,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>19</v>
       </c>
@@ -3176,7 +3211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>20</v>
       </c>
@@ -3215,7 +3250,7 @@
         <v>9476309</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>21</v>
       </c>
@@ -3254,7 +3289,7 @@
         <v>39241856</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>22</v>
       </c>
@@ -3293,7 +3328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>37</v>
       </c>
@@ -3332,7 +3367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>23</v>
       </c>
@@ -3371,7 +3406,7 @@
         <v>945973</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
@@ -3410,7 +3445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>25</v>
       </c>
@@ -3449,7 +3484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>26</v>
       </c>
@@ -3488,7 +3523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>27</v>
       </c>
@@ -3527,7 +3562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>29</v>
       </c>
@@ -3566,7 +3601,7 @@
         <v>101770795</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>30</v>
       </c>
@@ -3605,7 +3640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3620,7 +3655,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3635,7 +3670,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3650,7 +3685,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>44</v>
       </c>
@@ -3687,7 +3722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3702,7 +3737,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>15</v>
       </c>
@@ -3741,7 +3776,7 @@
         <v>-349437</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>33</v>
       </c>
@@ -3780,7 +3815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>35</v>
       </c>
@@ -3819,7 +3854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>18</v>
       </c>
@@ -3858,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>20</v>
       </c>
@@ -3897,7 +3932,7 @@
         <v>-4356158</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>21</v>
       </c>
@@ -3936,7 +3971,7 @@
         <v>-3055652</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>37</v>
       </c>
@@ -3975,7 +4010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>23</v>
       </c>
@@ -4014,7 +4049,7 @@
         <v>-668554</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>24</v>
       </c>
@@ -4053,7 +4088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>25</v>
       </c>
@@ -4092,7 +4127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>26</v>
       </c>
@@ -4131,7 +4166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>27</v>
       </c>
@@ -4170,7 +4205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>29</v>
       </c>
@@ -4209,7 +4244,7 @@
         <v>-26366</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>30</v>
       </c>
@@ -4248,7 +4283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>31</v>
       </c>
@@ -4285,7 +4320,7 @@
         <v>-8456167</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4300,7 +4335,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4315,7 +4350,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4330,7 +4365,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B114" s="7" t="s">
         <v>45</v>
       </c>
@@ -4367,7 +4402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4382,7 +4417,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>15</v>
       </c>
@@ -4421,7 +4456,7 @@
         <v>104857</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>33</v>
       </c>
@@ -4460,7 +4495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>35</v>
       </c>
@@ -4499,7 +4534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>18</v>
       </c>
@@ -4538,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>20</v>
       </c>
@@ -4577,7 +4612,7 @@
         <v>2875697</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>21</v>
       </c>
@@ -4616,7 +4651,7 @@
         <v>3407521</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>37</v>
       </c>
@@ -4655,7 +4690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>23</v>
       </c>
@@ -4694,7 +4729,7 @@
         <v>95963</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>24</v>
       </c>
@@ -4733,7 +4768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>25</v>
       </c>
@@ -4772,7 +4807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>26</v>
       </c>
@@ -4811,7 +4846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>27</v>
       </c>
@@ -4850,7 +4885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>29</v>
       </c>
@@ -4889,7 +4924,7 @@
         <v>28692</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>30</v>
       </c>
@@ -4928,7 +4963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
         <v>31</v>
       </c>
